--- a/examples/sources/data/unsolved/to_schedule/2019-04-09.xlsx
+++ b/examples/sources/data/unsolved/to_schedule/2019-04-09.xlsx
@@ -4478,7 +4478,7 @@
         <v>1</v>
       </c>
       <c r="N85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O85" s="2">
         <v>43564</v>
@@ -4519,7 +4519,7 @@
         <v>1</v>
       </c>
       <c r="N86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O86" s="2">
         <v>43564</v>
@@ -4938,7 +4938,7 @@
         <v>1</v>
       </c>
       <c r="N96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O96" s="2">
         <v>43564</v>
@@ -5890,7 +5890,7 @@
         <v>1</v>
       </c>
       <c r="N119">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O119" s="2">
         <v>43564</v>
@@ -5972,7 +5972,7 @@
         <v>1</v>
       </c>
       <c r="N121">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O121" s="2">
         <v>43564</v>
@@ -6136,7 +6136,7 @@
         <v>1</v>
       </c>
       <c r="N125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O125" s="2">
         <v>43564</v>
@@ -7462,7 +7462,7 @@
         <v>0</v>
       </c>
       <c r="M155">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N155">
         <v>1</v>
@@ -7515,7 +7515,7 @@
         <v>1</v>
       </c>
       <c r="N156">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O156" s="2">
         <v>43564</v>
